--- a/result_v2.xlsx
+++ b/result_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D4F9F-DB63-3C45-A6CE-FC91CA57F7D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E65BCBB-B67E-9248-82D0-7332066B3044}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="24300" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="460" windowWidth="24300" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>wall street with turns (new test routes)</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>resnet accuracy</t>
+  </si>
+  <si>
+    <t>combined  v3</t>
+  </si>
+  <si>
+    <t>combined v3</t>
   </si>
 </sst>
 </file>
@@ -618,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,95 +824,93 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="9">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.81</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="B12" s="9">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C12" s="9">
-        <v>0.314</v>
+        <v>0.23</v>
       </c>
       <c r="D12" s="9">
-        <v>0.57599999999999996</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="E12" s="9">
-        <v>0.80200000000000005</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="F12" s="9">
-        <v>0.88600000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="G12" s="9">
-        <v>0.95</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="H12" s="9">
-        <v>0.96</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="I12" s="9">
-        <v>0.95</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9">
-        <v>0.04</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C13" s="9">
-        <v>0.30599999999999999</v>
+        <v>0.314</v>
       </c>
       <c r="D13" s="9">
-        <v>0.58599999999999997</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="E13" s="9">
-        <v>0.77400000000000002</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="F13" s="9">
-        <v>0.86399999999999999</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="G13" s="9">
-        <v>0.93200000000000005</v>
+        <v>0.95</v>
       </c>
       <c r="H13" s="9">
-        <v>0.95199999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="I13" s="9">
-        <v>0.95399999999999996</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="9">
         <v>0.04</v>
@@ -915,116 +919,168 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="D14" s="9">
-        <v>0.59399999999999997</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="E14" s="9">
-        <v>0.79</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="F14" s="9">
-        <v>0.876</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="G14" s="9">
-        <v>0.92600000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="H14" s="9">
-        <v>0.94799999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I14" s="9">
-        <v>0.94199999999999995</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="9">
-        <v>6.6000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C15" s="9">
-        <v>0.312</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D15" s="9">
-        <v>0.57999999999999996</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="E15" s="9">
-        <v>0.78600000000000003</v>
+        <v>0.79</v>
       </c>
       <c r="F15" s="9">
-        <v>0.86</v>
+        <v>0.876</v>
       </c>
       <c r="G15" s="9">
-        <v>0.92800000000000005</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="H15" s="9">
-        <v>0.96599999999999997</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="I15" s="9">
-        <v>0.95199999999999996</v>
+        <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="C16" s="2">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.502</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.878</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.9</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.312</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.502</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.878</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>0.43</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>0.68</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>0.77400000000000002</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>0.88</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H18" s="2">
         <v>0.92600000000000005</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I18" s="2">
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-    </row>
     <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.504</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.872</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.92200000000000004</v>
+      </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -1036,443 +1092,469 @@
       <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1">
         <v>5</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>10</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>15</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>20</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>25</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G26" s="1">
         <v>30</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H26" s="1">
         <v>35</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I26" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="2">
         <v>0.13200000000000001</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>0.34200000000000003</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>0.57599999999999996</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="15">
         <v>0.75</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
         <v>0.86</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G27" s="2">
         <v>0.91200000000000003</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H27" s="2">
         <v>0.94399999999999995</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I27" s="2">
         <v>0.97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="9">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B28" s="9">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C28" s="9">
-        <v>0.14199999999999999</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D28" s="9">
-        <v>0.316</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E28" s="9">
-        <v>0.47199999999999998</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="F28" s="9">
-        <v>0.628</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="G28" s="9">
-        <v>0.77</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="H28" s="9">
-        <v>0.83799999999999997</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="I28" s="9">
-        <v>0.91</v>
+        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B29" s="9">
-        <v>4.8000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C29" s="9">
-        <v>0.16200000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D29" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="E29" s="19">
-        <v>0.53</v>
+        <v>0.316</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.47199999999999998</v>
       </c>
       <c r="F29" s="9">
-        <v>0.72199999999999998</v>
+        <v>0.628</v>
       </c>
       <c r="G29" s="9">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="H29" s="9">
-        <v>0.91600000000000004</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="I29" s="9">
-        <v>0.93799999999999994</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B30" s="9">
-        <v>1.7999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C30" s="9">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="D30" s="9">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.376</v>
+        <v>0.34</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.53</v>
       </c>
       <c r="F30" s="9">
-        <v>0.54400000000000004</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="G30" s="9">
-        <v>0.73599999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H30" s="9">
-        <v>0.84</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I30" s="9">
-        <v>0.88600000000000001</v>
+        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B31" s="9">
-        <v>3.5999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C31" s="9">
-        <v>0.12</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D31" s="9">
         <v>0.22800000000000001</v>
       </c>
       <c r="E31" s="9">
+        <v>0.376</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C32" s="9">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E33" s="9">
         <v>0.36799999999999999</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F33" s="9">
         <v>0.52600000000000002</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G33" s="9">
         <v>0.70199999999999996</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H33" s="9">
         <v>0.82399999999999995</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I33" s="9">
         <v>0.89400000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="9">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0.94</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" s="9">
-        <v>3.7999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C34" s="9">
         <v>0.14199999999999999</v>
       </c>
       <c r="D34" s="9">
-        <v>0.27800000000000002</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="E34" s="9">
-        <v>0.442</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="F34" s="9">
-        <v>0.65</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="G34" s="9">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="H34" s="9">
-        <v>0.86</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="I34" s="9">
-        <v>0.90600000000000003</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="10">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.318</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0.83</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0.92800000000000005</v>
+        <v>11</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0.94</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C36" s="5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D36" s="5">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="I36" s="5">
-        <v>0.82799999999999996</v>
+        <v>12</v>
+      </c>
+      <c r="B36" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.442</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.318</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B39" s="5">
         <v>2.4E-2</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C39" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D39" s="5">
         <v>0.216</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E39" s="5">
         <v>0.34799999999999998</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F39" s="5">
         <v>0.504</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G39" s="5">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H39" s="5">
         <v>0.77800000000000002</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I39" s="5">
         <v>0.87</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -1490,418 +1572,485 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="21" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-    </row>
-    <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="6">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="6">
         <v>5</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C47" s="6">
         <v>10</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D47" s="6">
         <v>15</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E47" s="6">
         <v>20</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F47" s="6">
         <v>25</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G47" s="6">
         <v>30</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H47" s="6">
         <v>35</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I47" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B48" s="2">
         <v>0.16</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C48" s="2">
         <v>0.36</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D48" s="2">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E48" s="2">
         <v>0.73599999999999999</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F48" s="2">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G48" s="2">
         <v>0.90800000000000003</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H48" s="2">
         <v>0.93</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I48" s="2">
         <v>0.93799999999999994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C47" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="E47" s="12">
-        <v>0.59</v>
-      </c>
-      <c r="F47" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="H47" s="10">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="I47" s="10">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C48" s="10">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="E48" s="12">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="F48" s="10">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="H48" s="10">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="I48" s="10">
-        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B49" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C49" s="10">
-        <v>0.29399999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="D49" s="10">
-        <v>0.504</v>
-      </c>
-      <c r="E49" s="18">
-        <v>0.61</v>
+        <v>0.44</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.59</v>
       </c>
       <c r="F49" s="10">
-        <v>0.73199999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="G49" s="10">
-        <v>0.80800000000000005</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="H49" s="10">
-        <v>0.84</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="I49" s="10">
-        <v>0.85599999999999998</v>
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="9">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C50" s="9">
-        <v>0.184</v>
-      </c>
-      <c r="D50" s="9">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="F50" s="9">
-        <v>0.61</v>
-      </c>
-      <c r="G50" s="9">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0.76</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0.8</v>
+        <v>14</v>
+      </c>
+      <c r="B50" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="10">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.504</v>
+      </c>
+      <c r="E51" s="18">
+        <v>0.61</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C52" s="9">
+        <v>0.184</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0.76</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C53" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.314</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B54" s="9">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C54" s="9">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D54" s="9">
         <v>0.35</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E54" s="9">
         <v>0.48399999999999999</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F54" s="9">
         <v>0.60799999999999998</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G54" s="9">
         <v>0.71</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H54" s="9">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I54" s="9">
         <v>0.81599999999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="C52" s="9">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="D52" s="9">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="F52" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0.77</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0.82</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="10">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C53" s="10">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="E53" s="10">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="F53" s="10">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="G53" s="10">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="H53" s="10">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="I53" s="10">
-        <v>0.84399999999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="10">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="C54" s="10">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="D54" s="10">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="F54" s="10">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="G54" s="10">
-        <v>0.748</v>
-      </c>
-      <c r="H54" s="10">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="I54" s="10">
-        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C55" s="9">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="10">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0.748</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B58" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C58" s="10">
         <v>0.22800000000000001</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D58" s="10">
         <v>0.39200000000000002</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E58" s="10">
         <v>0.56399999999999995</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F58" s="10">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G58" s="10">
         <v>0.752</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H58" s="10">
         <v>0.82</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I58" s="10">
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B59" s="2">
         <v>0.02</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C59" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D59" s="2">
         <v>0.186</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E59" s="2">
         <v>0.30399999999999999</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F59" s="2">
         <v>0.42799999999999999</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G59" s="2">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H59" s="2">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I59" s="2">
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B60" s="2">
         <v>0.06</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C60" s="2">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D60" s="2">
         <v>0.318</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E60" s="2">
         <v>0.45800000000000002</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F60" s="2">
         <v>0.57599999999999996</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G60" s="2">
         <v>0.68200000000000005</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H60" s="2">
         <v>0.73</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I60" s="2">
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
+    <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.80600000000000005</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1910,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A6:I58"/>
+  <dimension ref="A6:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:I43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2107,847 +2256,994 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="9">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.314</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="9">
         <v>0.02</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="9">
         <v>0.06</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>0.156</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>0.224</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>0.32400000000000001</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="9">
         <v>0.47399999999999998</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="9">
         <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.246</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.376</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.63</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.67</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9">
-        <v>1.6E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C15" s="9">
-        <v>9.8000000000000004E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D15" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.35399999999999998</v>
+        <v>0.246</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.376</v>
       </c>
       <c r="F15" s="9">
         <v>0.49399999999999999</v>
       </c>
       <c r="G15" s="9">
-        <v>0.55400000000000005</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="H15" s="9">
-        <v>0.60399999999999998</v>
+        <v>0.63</v>
       </c>
       <c r="I15" s="9">
-        <v>0.61799999999999999</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B17" s="9">
         <v>2.4E-2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C17" s="9">
         <v>0.112</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>0.25600000000000001</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>0.36</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>0.48199999999999998</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>0.58199999999999996</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H17" s="9">
         <v>0.63800000000000001</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I17" s="9">
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B18" s="9">
         <v>0.02</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C18" s="9">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>0.2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>0.314</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>0.42599999999999999</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>0.54400000000000004</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H18" s="9">
         <v>0.60199999999999998</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I18" s="9">
         <v>0.66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.53200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>10</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>15</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>20</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>25</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <v>30</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <v>35</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I23" s="1">
         <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.874</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>2E-3</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <v>0.14599999999999999</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <v>0.23799999999999999</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="2">
         <v>0.35399999999999998</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I25" s="2">
         <v>0.47199999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="C25" s="9">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B26" s="9">
         <v>0.02</v>
       </c>
       <c r="C26" s="9">
-        <v>6.8000000000000005E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D26" s="9">
         <v>0.14599999999999999</v>
       </c>
       <c r="E26" s="7">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="C27" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E27" s="7">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>0.316</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>0.376</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H27" s="9">
         <v>0.46</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I27" s="9">
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B28" s="9">
         <v>1.2E-2</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C28" s="9">
         <v>0.03</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>0.106</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>0.26200000000000001</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H28" s="9">
         <v>0.36799999999999999</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I28" s="9">
         <v>0.432</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.124</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B30" s="9">
         <v>1.6E-2</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C30" s="9">
         <v>0.04</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D30" s="9">
         <v>7.8E-2</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E30" s="9">
         <v>0.124</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F30" s="9">
         <v>0.16800000000000001</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G30" s="9">
         <v>0.246</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H30" s="9">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I30" s="9">
         <v>0.436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="9">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C29" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0.124</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0.216</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0.60199999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="C30" s="9">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" s="9">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C31" s="9">
-        <v>6.2E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D31" s="9">
         <v>0.124</v>
       </c>
       <c r="E31" s="9">
-        <v>0.19800000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="F31" s="9">
-        <v>0.25800000000000001</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="G31" s="9">
-        <v>0.36799999999999999</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="H31" s="9">
-        <v>0.46</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="I31" s="9">
-        <v>0.52200000000000002</v>
+        <v>0.60199999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="C32" s="9">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.124</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B34" s="9">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C34" s="9">
         <v>6.2E-2</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D34" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E34" s="9">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F34" s="9">
         <v>0.34</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G34" s="9">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H34" s="9">
         <v>0.55200000000000005</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I34" s="9">
         <v>0.63</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.44800000000000001</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="1">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
         <v>5</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C41" s="1">
         <v>10</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D41" s="1">
         <v>15</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E41" s="1">
         <v>20</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F41" s="1">
         <v>25</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G41" s="1">
         <v>30</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H41" s="1">
         <v>35</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B42" s="2">
         <v>0.11</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C42" s="2">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D42" s="2">
         <v>0.442</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E42" s="2">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F42" s="2">
         <v>0.71399999999999997</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G42" s="2">
         <v>0.81599999999999995</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H42" s="2">
         <v>0.85</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I42" s="2">
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B43" s="2">
         <v>2E-3</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C43" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D43" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E43" s="2">
         <v>0.108</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F43" s="2">
         <v>0.182</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G43" s="2">
         <v>0.27</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H43" s="2">
         <v>0.36799999999999999</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I43" s="2">
         <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="9">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C42" s="9">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D42" s="9">
-        <v>0.222</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="F42" s="9">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="9">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="C43" s="9">
-        <v>0.112</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="F43" s="9">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0.52</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C44" s="9">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.222</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0.112</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B46" s="9">
         <v>0.02</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C46" s="9">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D46" s="9">
         <v>0.114</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E46" s="9">
         <v>0.158</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F46" s="9">
         <v>0.23400000000000001</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G46" s="9">
         <v>0.308</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H46" s="9">
         <v>0.34799999999999998</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I46" s="9">
         <v>0.38</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+    <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="B47" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C47" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0.192</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="B45" s="9">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C45" s="9">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D45" s="9">
-        <v>0.126</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0.252</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="I45" s="9">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="C46" s="9">
-        <v>0.09</v>
-      </c>
-      <c r="D46" s="9">
-        <v>0.188</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="F46" s="9">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0.50600000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C47" s="9">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D47" s="9">
-        <v>0.186</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F47" s="9">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="I47" s="9">
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B48" s="9">
         <v>1.6E-2</v>
       </c>
       <c r="C48" s="9">
-        <v>0.1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D48" s="9">
-        <v>0.182</v>
+        <v>0.126</v>
       </c>
       <c r="E48" s="9">
-        <v>0.246</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="F48" s="9">
-        <v>0.33800000000000002</v>
+        <v>0.252</v>
       </c>
       <c r="G48" s="9">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H48" s="9">
         <v>0.39</v>
       </c>
-      <c r="H48" s="9">
-        <v>0.45400000000000001</v>
-      </c>
       <c r="I48" s="9">
-        <v>0.48799999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.188</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C50" s="9">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.186</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.182</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.246</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B52" s="9">
         <v>0.01</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C52" s="9">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D52" s="9">
         <v>0.17799999999999999</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E52" s="9">
         <v>0.26200000000000001</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F52" s="9">
         <v>0.35599999999999998</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G52" s="9">
         <v>0.41199999999999998</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H52" s="9">
         <v>0.49</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I52" s="9">
         <v>0.54</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-    </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.314</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
@@ -2960,33 +3256,44 @@
       <c r="H56"/>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-    </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
+    <row r="59" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A40:I40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/result_v2.xlsx
+++ b/result_v2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E65BCBB-B67E-9248-82D0-7332066B3044}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F45A5D0-B0B3-1B4E-96FD-1946EA705FE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="460" windowWidth="24300" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="460" windowWidth="24300" windowHeight="14400" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
     <sheet name="BSD_length" sheetId="2" r:id="rId2"/>
-    <sheet name="ES" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="BSD_length_th" sheetId="9" r:id="rId3"/>
+    <sheet name="ES" sheetId="8" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
   <si>
     <t>wall street with turns (new test routes)</t>
   </si>
@@ -94,12 +95,15 @@
   <si>
     <t>combined v3</t>
   </si>
+  <si>
+    <t>BSD alexnet(recall + acc)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -134,8 +138,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF5B9BD5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +197,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -179,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,16 +267,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -626,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,17 +703,17 @@
       <c r="A1" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -736,95 +799,97 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="20">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="20">
         <v>0.32600000000000001</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="20">
         <v>0.56599999999999995</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="20">
         <v>0.74199999999999999</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="20">
         <v>0.83799999999999997</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="20">
         <v>0.91600000000000004</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="20">
         <v>0.95399999999999996</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="20">
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="20">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="20">
         <v>0.36399999999999999</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="20">
         <v>0.628</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="22">
         <v>0.79</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="20">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="20">
         <v>0.92600000000000005</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="20">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="20">
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="20">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
       <c r="B11" s="9">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -850,32 +915,32 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="20">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="20">
         <v>0.23</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="20">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="20">
         <v>0.69599999999999995</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="20">
         <v>0.81</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="20">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="20">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="20">
         <v>0.93200000000000005</v>
       </c>
     </row>
@@ -995,90 +1060,90 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="23">
         <v>0.01</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="23">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="23">
         <v>0.27</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="23">
         <v>0.502</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="23">
         <v>0.64400000000000002</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="23">
         <v>0.78400000000000003</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="23">
         <v>0.878</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="23">
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="23">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="23">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="23">
         <v>0.43</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="23">
         <v>0.68</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="23">
         <v>0.77400000000000002</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="23">
         <v>0.88</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="23">
         <v>0.92600000000000005</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="23">
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="23">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="23">
         <v>0.25600000000000001</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="23">
         <v>0.504</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="23">
         <v>0.71</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="23">
         <v>0.79</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="23">
         <v>0.872</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="23">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="23">
         <v>0.92200000000000004</v>
       </c>
     </row>
@@ -1106,17 +1171,17 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
@@ -1203,95 +1268,97 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="20">
         <v>0.04</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="20">
         <v>0.14199999999999999</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="20">
         <v>0.316</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="20">
         <v>0.47199999999999998</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="20">
         <v>0.628</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="20">
         <v>0.77</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="20">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="20">
         <v>0.91</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="20">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="20">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="20">
         <v>0.34</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="22">
         <v>0.53</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="20">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="20">
         <v>0.85</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="20">
         <v>0.91600000000000004</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="20">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="20">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="20">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="20">
         <v>0.22800000000000001</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="20">
         <v>0.376</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="20">
         <v>0.54400000000000004</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="20">
         <v>0.73599999999999999</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="20">
         <v>0.84</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="20">
         <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="B32" s="9">
         <v>1.4E-2</v>
       </c>
@@ -1317,32 +1384,32 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="20">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="20">
         <v>0.12</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="20">
         <v>0.22800000000000001</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="20">
         <v>0.36799999999999999</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="20">
         <v>0.52600000000000002</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="20">
         <v>0.70199999999999996</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="20">
         <v>0.82399999999999995</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="20">
         <v>0.89400000000000002</v>
       </c>
     </row>
@@ -1462,90 +1529,90 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="25">
         <v>1.6E-2</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="25">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="25">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="25">
         <v>0.21</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="25">
         <v>0.39</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="25">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="25">
         <v>0.71799999999999997</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="25">
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="25">
         <v>2.4E-2</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="25">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="25">
         <v>0.216</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="25">
         <v>0.34799999999999998</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="25">
         <v>0.504</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="25">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="25">
         <v>0.77800000000000002</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="25">
         <v>0.87</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="25">
         <v>0.03</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="25">
         <v>0.1</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="25">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="25">
         <v>0.38400000000000001</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="25">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="25">
         <v>0.81799999999999995</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="25">
         <v>0.88200000000000001</v>
       </c>
     </row>
@@ -1604,16 +1671,16 @@
     </row>
     <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
@@ -1700,95 +1767,97 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
+    <row r="50" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="26">
         <v>0.23799999999999999</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="26">
         <v>0.41599999999999998</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="26">
         <v>0.55400000000000005</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="26">
         <v>0.66800000000000004</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="26">
         <v>0.76400000000000001</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="26">
         <v>0.81399999999999995</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="26">
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
+    <row r="51" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="26">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="26">
         <v>0.29399999999999998</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="26">
         <v>0.504</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="26">
         <v>0.61</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="26">
         <v>0.73199999999999998</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="26">
         <v>0.80800000000000005</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="26">
         <v>0.84</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="26">
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
+    <row r="52" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="20">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="20">
         <v>0.184</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="20">
         <v>0.34399999999999997</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="20">
         <v>0.46800000000000003</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="20">
         <v>0.61</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="20">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="20">
         <v>0.76</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="20">
         <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="B53" s="9">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -1814,32 +1883,32 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="20">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="20">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="20">
         <v>0.35</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="20">
         <v>0.48399999999999999</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="20">
         <v>0.60799999999999998</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="20">
         <v>0.71</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="20">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="20">
         <v>0.81599999999999995</v>
       </c>
     </row>
@@ -1959,90 +2028,90 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="23">
         <v>0.02</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="23">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="23">
         <v>0.186</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="23">
         <v>0.30399999999999999</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="23">
         <v>0.42799999999999999</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="23">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="23">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="23">
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="23">
         <v>0.06</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="23">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="23">
         <v>0.318</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="23">
         <v>0.45800000000000002</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="23">
         <v>0.57599999999999996</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="23">
         <v>0.68200000000000005</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="23">
         <v>0.73</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="23">
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="23">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="23">
         <v>0.186</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="23">
         <v>0.31</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="23">
         <v>0.44800000000000001</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="23">
         <v>0.67600000000000005</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="23">
         <v>0.752</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="23">
         <v>0.80600000000000005</v>
       </c>
     </row>
@@ -2061,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:I53"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2072,17 +2141,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -2197,66 +2266,68 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="27">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="27">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="27">
         <v>0.23200000000000001</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="27">
         <v>0.374</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="27">
         <v>0.48799999999999999</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="27">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="27">
         <v>0.59</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="27">
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="20">
         <v>0.01</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="20">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="20">
         <v>0.126</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="20">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="20">
         <v>0.36</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="20">
         <v>0.42399999999999999</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="20">
         <v>0.52200000000000002</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="20">
         <v>0.53</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -2282,32 +2353,32 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="20">
         <v>0.02</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="20">
         <v>0.06</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="20">
         <v>0.156</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="20">
         <v>0.224</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="20">
         <v>0.32400000000000001</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="20">
         <v>0.39400000000000002</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="20">
         <v>0.47399999999999998</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="20">
         <v>0.48799999999999999</v>
       </c>
     </row>
@@ -2457,17 +2528,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
@@ -2582,66 +2653,68 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="20">
         <v>0.02</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="20">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="20">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="20">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="20">
         <v>0.316</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="20">
         <v>0.376</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="20">
         <v>0.46</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="20">
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="20">
         <v>1.2E-2</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="20">
         <v>0.03</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="20">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="20">
         <v>0.106</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="20">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="20">
         <v>0.26200000000000001</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="20">
         <v>0.36799999999999999</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="20">
         <v>0.432</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B29" s="9">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -2667,32 +2740,32 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="20">
         <v>1.6E-2</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="20">
         <v>0.04</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="20">
         <v>7.8E-2</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="20">
         <v>0.124</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="20">
         <v>0.16800000000000001</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="20">
         <v>0.246</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="20">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="20">
         <v>0.436</v>
       </c>
     </row>
@@ -2852,17 +2925,17 @@
       <c r="I38" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
@@ -2977,64 +3050,66 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="9">
+    <row r="45" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="20">
         <v>0.112</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="20">
         <v>0.20599999999999999</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="20">
         <v>0.29799999999999999</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="20">
         <v>0.38200000000000001</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="20">
         <v>0.45600000000000002</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="20">
         <v>0.52</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="20">
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="20">
         <v>0.02</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="20">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="20">
         <v>0.114</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="20">
         <v>0.158</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="20">
         <v>0.23400000000000001</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="20">
         <v>0.308</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="20">
         <v>0.34799999999999998</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="20">
         <v>0.38</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B47" s="9">
         <v>1.4E-2</v>
       </c>
@@ -3060,32 +3135,32 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+    <row r="48" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="20">
         <v>1.6E-2</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="20">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="20">
         <v>0.126</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="20">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="20">
         <v>0.252</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="20">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="20">
         <v>0.39</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="20">
         <v>0.42199999999999999</v>
       </c>
     </row>
@@ -3301,6 +3376,806 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB399065-25BC-E84A-9F60-861C65FA96CC}">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="28">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C10" s="28">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.252</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.374</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="29">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.12</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0.314</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.246</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.376</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0.628</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C13" s="29">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.22</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.112</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.36</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="29">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.314</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1">
+        <v>35</v>
+      </c>
+      <c r="I19" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="C22" s="29">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F22" s="29">
+        <v>0.35</v>
+      </c>
+      <c r="G22" s="29">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I22" s="29">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="29">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C23" s="29">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0.09</v>
+      </c>
+      <c r="E23" s="29">
+        <v>0.124</v>
+      </c>
+      <c r="F23" s="29">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H23" s="29">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I23" s="29">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C24" s="29">
+        <v>0.06</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0.124</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0.216</v>
+      </c>
+      <c r="F24" s="29">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G24" s="29">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H24" s="29">
+        <v>0.54</v>
+      </c>
+      <c r="I24" s="29">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="C25" s="29">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D25" s="29">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E25" s="29">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F25" s="29">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="G25" s="29">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H25" s="29">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I25" s="29">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="29">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C26" s="29">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D26" s="29">
+        <v>0.124</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F26" s="29">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G26" s="29">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H26" s="29">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="I26" s="29">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="29">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C27" s="29">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F27" s="29">
+        <v>0.34</v>
+      </c>
+      <c r="G27" s="29">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H27" s="29">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I27" s="29">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1">
+        <v>35</v>
+      </c>
+      <c r="I33" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="29">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C36" s="29">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D36" s="29">
+        <v>0.222</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F36" s="29">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G36" s="29">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H36" s="29">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="I36" s="29">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="29">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C37" s="29">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0.08</v>
+      </c>
+      <c r="E37" s="29">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F37" s="29">
+        <v>0.192</v>
+      </c>
+      <c r="G37" s="29">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H37" s="29">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="I37" s="29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="C38" s="29">
+        <v>0.09</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.188</v>
+      </c>
+      <c r="E38" s="29">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F38" s="29">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G38" s="29">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H38" s="29">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="I38" s="29">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="29">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C39" s="29">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D39" s="29">
+        <v>0.186</v>
+      </c>
+      <c r="E39" s="29">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F39" s="29">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G39" s="29">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H39" s="29">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="I39" s="29">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C40" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="29">
+        <v>0.182</v>
+      </c>
+      <c r="E40" s="29">
+        <v>0.246</v>
+      </c>
+      <c r="F40" s="29">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G40" s="29">
+        <v>0.39</v>
+      </c>
+      <c r="H40" s="29">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="I40" s="29">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="C41" s="29">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D41" s="29">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E41" s="29">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F41" s="29">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G41" s="29">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H41" s="29">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="I41" s="29">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A32:I32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/result_v2.xlsx
+++ b/result_v2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F45A5D0-B0B3-1B4E-96FD-1946EA705FE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC8C7A3-B8F4-5548-AB81-47A3173E0ED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="460" windowWidth="24300" windowHeight="14400" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="480" windowWidth="24300" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
     <sheet name="BSD_length" sheetId="2" r:id="rId2"/>
     <sheet name="BSD_length_th" sheetId="9" r:id="rId3"/>
-    <sheet name="ES" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="BSD_length_th2" sheetId="10" r:id="rId4"/>
+    <sheet name="ES" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="24">
   <si>
     <t>wall street with turns (new test routes)</t>
   </si>
@@ -97,6 +98,9 @@
   </si>
   <si>
     <t>BSD alexnet(recall + acc)</t>
+  </si>
+  <si>
+    <t>N = 50</t>
   </si>
 </sst>
 </file>
@@ -216,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,9 +256,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,9 +266,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,6 +298,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -687,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,17 +704,17 @@
       <c r="A1" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -771,7 +772,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="9">
@@ -799,95 +800,95 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>0.32600000000000001</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>0.56599999999999995</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>0.74199999999999999</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>0.83799999999999997</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <v>0.91600000000000004</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <v>0.95399999999999996</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>0.36399999999999999</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>0.628</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>0.79</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <v>0.92600000000000005</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>0.45800000000000002</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>0.71799999999999997</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>0.82799999999999996</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <v>0.88800000000000001</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="9">
@@ -915,32 +916,32 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>0.23</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>0.69599999999999995</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>0.81</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="18">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="18">
         <v>0.93200000000000005</v>
       </c>
     </row>
@@ -1060,95 +1061,121 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <v>0.01</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="21">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="21">
         <v>0.27</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>0.502</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>0.64400000000000002</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="21">
         <v>0.78400000000000003</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="21">
         <v>0.878</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="21">
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="21">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="21">
         <v>0.43</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>0.68</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="21">
         <v>0.77400000000000002</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="21">
         <v>0.88</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="21">
         <v>0.92600000000000005</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="21">
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="21">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="21">
         <v>0.25600000000000001</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="21">
         <v>0.504</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>0.71</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <v>0.79</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="21">
         <v>0.872</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="21">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="21">
         <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.52200000000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
@@ -1171,17 +1198,17 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
@@ -1223,7 +1250,7 @@
       <c r="D27" s="2">
         <v>0.57599999999999996</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <v>0.75</v>
       </c>
       <c r="F27" s="2">
@@ -1240,7 +1267,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="9">
@@ -1268,95 +1295,95 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="18">
         <v>0.04</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>0.14199999999999999</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="18">
         <v>0.316</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="18">
         <v>0.47199999999999998</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="18">
         <v>0.628</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="18">
         <v>0.77</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="18">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="18">
         <v>0.91</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="18">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="18">
         <v>0.34</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="20">
         <v>0.53</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="18">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="18">
         <v>0.85</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="18">
         <v>0.91600000000000004</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="18">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <v>0.22800000000000001</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="18">
         <v>0.376</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>0.54400000000000004</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="18">
         <v>0.73599999999999999</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="18">
         <v>0.84</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="18">
         <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="9">
@@ -1384,32 +1411,32 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="18">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <v>0.12</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="18">
         <v>0.22800000000000001</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="18">
         <v>0.36799999999999999</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="18">
         <v>0.52600000000000002</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="18">
         <v>0.70199999999999996</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="18">
         <v>0.82399999999999995</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="18">
         <v>0.89400000000000002</v>
       </c>
     </row>
@@ -1529,117 +1556,127 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+    <row r="38" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="23">
         <v>1.6E-2</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="23">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="23">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="23">
         <v>0.21</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="23">
         <v>0.39</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="23">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="23">
         <v>0.71799999999999997</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="23">
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+    <row r="39" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="23">
         <v>2.4E-2</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="23">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="23">
         <v>0.216</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="23">
         <v>0.34799999999999998</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="23">
         <v>0.504</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="23">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="23">
         <v>0.77800000000000002</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="23">
         <v>0.87</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="23">
         <v>0.03</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="23">
         <v>0.1</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="23">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="23">
         <v>0.38400000000000001</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="23">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="23">
         <v>0.81799999999999995</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="23">
         <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="A41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.156</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.42399999999999999</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1650,7 +1687,7 @@
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1670,20 +1707,20 @@
       <c r="P45" s="4"/>
     </row>
     <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
     </row>
     <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="6">
         <v>5</v>
       </c>
@@ -1739,7 +1776,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="10">
@@ -1767,95 +1804,95 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="24">
         <v>0.23799999999999999</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="24">
         <v>0.41599999999999998</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="24">
         <v>0.55400000000000005</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="24">
         <v>0.66800000000000004</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="24">
         <v>0.76400000000000001</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="24">
         <v>0.81399999999999995</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="24">
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="24">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="24">
         <v>0.29399999999999998</v>
       </c>
-      <c r="D51" s="26">
+      <c r="D51" s="24">
         <v>0.504</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="24">
         <v>0.61</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="24">
         <v>0.73199999999999998</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="24">
         <v>0.80800000000000005</v>
       </c>
-      <c r="H51" s="26">
+      <c r="H51" s="24">
         <v>0.84</v>
       </c>
-      <c r="I51" s="26">
+      <c r="I51" s="24">
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="18">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="18">
         <v>0.184</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="18">
         <v>0.34399999999999997</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="18">
         <v>0.46800000000000003</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="18">
         <v>0.61</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="18">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="18">
         <v>0.76</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="18">
         <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B53" s="9">
@@ -1883,32 +1920,32 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+    <row r="54" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="18">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="18">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="18">
         <v>0.35</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="18">
         <v>0.48399999999999999</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="18">
         <v>0.60799999999999998</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="18">
         <v>0.71</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="18">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="18">
         <v>0.81599999999999995</v>
       </c>
     </row>
@@ -2028,91 +2065,120 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+    <row r="59" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="21">
         <v>0.02</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="21">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="21">
         <v>0.186</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="21">
         <v>0.30399999999999999</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="21">
         <v>0.42799999999999999</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="21">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="21">
         <v>0.65400000000000003</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="21">
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
+    <row r="60" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="21">
         <v>0.06</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="21">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="21">
         <v>0.318</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="21">
         <v>0.45800000000000002</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="21">
         <v>0.57599999999999996</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="21">
         <v>0.68200000000000005</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="21">
         <v>0.73</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="21">
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
+    <row r="61" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="21">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="21">
         <v>0.186</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="21">
         <v>0.31</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="21">
         <v>0.44800000000000001</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="21">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="21">
         <v>0.67600000000000005</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="21">
         <v>0.752</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="21">
         <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.224</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.45600000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -2141,17 +2207,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -2266,61 +2332,61 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="25">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>0.23200000000000001</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>0.374</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="25">
         <v>0.48799999999999999</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="25">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="25">
         <v>0.59</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="25">
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <v>0.01</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>0.126</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>0.36</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="18">
         <v>0.42399999999999999</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <v>0.52200000000000002</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="18">
         <v>0.53</v>
       </c>
     </row>
@@ -2353,32 +2419,32 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <v>0.02</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>0.06</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <v>0.156</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>0.224</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="18">
         <v>0.32400000000000001</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="18">
         <v>0.39400000000000002</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <v>0.47399999999999998</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <v>0.48799999999999999</v>
       </c>
     </row>
@@ -2528,17 +2594,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
@@ -2653,61 +2719,61 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="18">
         <v>0.02</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="18">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="18">
         <v>0.316</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <v>0.376</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="18">
         <v>0.46</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="18">
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="18">
         <v>1.2E-2</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="18">
         <v>0.03</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="18">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="18">
         <v>0.106</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="18">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="18">
         <v>0.26200000000000001</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="18">
         <v>0.36799999999999999</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="18">
         <v>0.432</v>
       </c>
     </row>
@@ -2740,32 +2806,32 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="18">
         <v>1.6E-2</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <v>0.04</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="18">
         <v>7.8E-2</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="18">
         <v>0.124</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="18">
         <v>0.16800000000000001</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="18">
         <v>0.246</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="18">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="18">
         <v>0.436</v>
       </c>
     </row>
@@ -2925,17 +2991,17 @@
       <c r="I38" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
@@ -3050,59 +3116,59 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20">
+    <row r="45" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="18">
         <v>0.112</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="18">
         <v>0.20599999999999999</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="18">
         <v>0.29799999999999999</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="18">
         <v>0.38200000000000001</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="18">
         <v>0.45600000000000002</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="18">
         <v>0.52</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="18">
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
+    <row r="46" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="18">
         <v>0.02</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="18">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="18">
         <v>0.114</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <v>0.158</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="18">
         <v>0.23400000000000001</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="18">
         <v>0.308</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="18">
         <v>0.34799999999999998</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="18">
         <v>0.38</v>
       </c>
     </row>
@@ -3135,32 +3201,32 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+    <row r="48" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="18">
         <v>1.6E-2</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="18">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="18">
         <v>0.126</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="18">
         <v>0.252</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="18">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="18">
         <v>0.39</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="18">
         <v>0.42199999999999999</v>
       </c>
     </row>
@@ -3377,10 +3443,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB399065-25BC-E84A-9F60-861C65FA96CC}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:I41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3404,17 +3470,17 @@
       <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -3473,28 +3539,28 @@
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>0.252</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>0.374</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <v>0.54600000000000004</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <v>0.60399999999999998</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="26">
         <v>0.66200000000000003</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <v>0.67400000000000004</v>
       </c>
     </row>
@@ -3502,28 +3568,28 @@
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="27">
         <v>6.2E-2</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="27">
         <v>0.12</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="27">
         <v>0.19600000000000001</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="27">
         <v>0.314</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="27">
         <v>0.40600000000000003</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="27">
         <v>0.46600000000000003</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="27">
         <v>0.496</v>
       </c>
     </row>
@@ -3531,28 +3597,28 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="27">
         <v>1.4E-2</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="27">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <v>0.246</v>
       </c>
       <c r="E12" s="7">
         <v>0.376</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <v>0.49399999999999999</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <v>0.56399999999999995</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="27">
         <v>0.628</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="27">
         <v>0.65800000000000003</v>
       </c>
     </row>
@@ -3560,28 +3626,28 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="27">
         <v>1.6E-2</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="27">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="27">
         <v>0.22</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="27">
         <v>0.35399999999999998</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="27">
         <v>0.49399999999999999</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="27">
         <v>0.55400000000000005</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="27">
         <v>0.60199999999999998</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="27">
         <v>0.61</v>
       </c>
     </row>
@@ -3589,28 +3655,28 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="27">
         <v>2.4E-2</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="27">
         <v>0.112</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="27">
         <v>0.25600000000000001</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="27">
         <v>0.36</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="27">
         <v>0.48199999999999998</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="27">
         <v>0.58199999999999996</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="27">
         <v>0.63800000000000001</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="27">
         <v>0.67600000000000005</v>
       </c>
     </row>
@@ -3618,282 +3684,342 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="27">
         <v>0.02</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="27">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="27">
         <v>0.2</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="27">
         <v>0.314</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="27">
         <v>0.42599999999999999</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="27">
         <v>0.54400000000000004</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="27">
         <v>0.60399999999999998</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="27">
         <v>0.65</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>10</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>15</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>20</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="1">
         <v>25</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G20" s="1">
         <v>30</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H20" s="1">
         <v>35</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I20" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="29">
-        <v>0.02</v>
-      </c>
-      <c r="C22" s="29">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D22" s="29">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="F22" s="29">
-        <v>0.35</v>
-      </c>
-      <c r="G22" s="29">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="H22" s="29">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I22" s="29">
-        <v>0.63400000000000001</v>
-      </c>
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="C23" s="27">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0.35</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H23" s="27">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I23" s="27">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B24" s="27">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C24" s="27">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D24" s="27">
         <v>0.09</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E24" s="27">
         <v>0.124</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F24" s="27">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G24" s="27">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H24" s="27">
         <v>0.36799999999999999</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I24" s="27">
         <v>0.43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="29">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C24" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="D24" s="29">
-        <v>0.124</v>
-      </c>
-      <c r="E24" s="29">
-        <v>0.216</v>
-      </c>
-      <c r="F24" s="29">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="G24" s="29">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H24" s="29">
-        <v>0.54</v>
-      </c>
-      <c r="I24" s="29">
-        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="29">
-        <v>0.02</v>
-      </c>
-      <c r="C25" s="29">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="D25" s="29">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E25" s="29">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="F25" s="29">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="G25" s="29">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="H25" s="29">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="I25" s="29">
-        <v>0.628</v>
+        <v>10</v>
+      </c>
+      <c r="B25" s="27">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C25" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.124</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0.216</v>
+      </c>
+      <c r="F25" s="27">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G25" s="27">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H25" s="27">
+        <v>0.54</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="29">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C26" s="29">
-        <v>6.2E-2</v>
-      </c>
-      <c r="D26" s="29">
-        <v>0.124</v>
-      </c>
-      <c r="E26" s="29">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="F26" s="29">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="G26" s="29">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="H26" s="29">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="I26" s="29">
-        <v>0.51800000000000002</v>
+        <v>11</v>
+      </c>
+      <c r="B26" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="C26" s="27">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F26" s="27">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="G26" s="27">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H26" s="27">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I26" s="27">
+        <v>0.628</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="27">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C27" s="27">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0.124</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G27" s="27">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H27" s="27">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="I27" s="27">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B28" s="27">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C28" s="27">
         <v>6.2E-2</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D28" s="27">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E28" s="27">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F28" s="27">
         <v>0.34</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G28" s="27">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H28" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I28" s="27">
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-    </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.32400000000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -3902,61 +4028,51 @@
       <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>10</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>15</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>20</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>25</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>35</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3968,184 +4084,220 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="29">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C36" s="29">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D36" s="29">
-        <v>0.222</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="F36" s="29">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="G36" s="29">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="H36" s="29">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="I36" s="29">
-        <v>0.56799999999999995</v>
-      </c>
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="27">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C37" s="27">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0.222</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F37" s="27">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G37" s="27">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H37" s="27">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="I37" s="27">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B38" s="27">
         <v>1.4E-2</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C38" s="27">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D38" s="27">
         <v>0.08</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E38" s="27">
         <v>0.14199999999999999</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F38" s="27">
         <v>0.192</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G38" s="27">
         <v>0.23599999999999999</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H38" s="27">
         <v>0.29199999999999998</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I38" s="27">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="C38" s="29">
-        <v>0.09</v>
-      </c>
-      <c r="D38" s="29">
-        <v>0.188</v>
-      </c>
-      <c r="E38" s="29">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="F38" s="29">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="G38" s="29">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="H38" s="29">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="I38" s="29">
-        <v>0.498</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="29">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C39" s="29">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D39" s="29">
-        <v>0.186</v>
-      </c>
-      <c r="E39" s="29">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F39" s="29">
+        <v>10</v>
+      </c>
+      <c r="B39" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="C39" s="27">
+        <v>0.09</v>
+      </c>
+      <c r="D39" s="27">
+        <v>0.188</v>
+      </c>
+      <c r="E39" s="27">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G39" s="27">
         <v>0.39400000000000002</v>
       </c>
-      <c r="G39" s="29">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="H39" s="29">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="I39" s="29">
-        <v>0.56999999999999995</v>
+      <c r="H39" s="27">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="I39" s="27">
+        <v>0.498</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="29">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C40" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="D40" s="29">
-        <v>0.182</v>
-      </c>
-      <c r="E40" s="29">
-        <v>0.246</v>
-      </c>
-      <c r="F40" s="29">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="G40" s="29">
-        <v>0.39</v>
-      </c>
-      <c r="H40" s="29">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="I40" s="29">
-        <v>0.47799999999999998</v>
+        <v>11</v>
+      </c>
+      <c r="B40" s="27">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C40" s="27">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D40" s="27">
+        <v>0.186</v>
+      </c>
+      <c r="E40" s="27">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F40" s="27">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G40" s="27">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H40" s="27">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="I40" s="27">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="27">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C41" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="27">
+        <v>0.182</v>
+      </c>
+      <c r="E41" s="27">
+        <v>0.246</v>
+      </c>
+      <c r="F41" s="27">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G41" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="H41" s="27">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="I41" s="27">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B42" s="27">
         <v>0.01</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C42" s="27">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D42" s="27">
         <v>0.17799999999999999</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E42" s="27">
         <v>0.26200000000000001</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F42" s="27">
         <v>0.35599999999999998</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G42" s="27">
         <v>0.41199999999999998</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H42" s="27">
         <v>0.49199999999999999</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I42" s="27">
         <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-    </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.182</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.30599999999999999</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
@@ -4164,18 +4316,657 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A33:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49435E35-DE77-304D-A1D1-8081D916C8B0}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C10" s="26">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0.252</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.374</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.66</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="27">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0.126</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.36</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="27">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.246</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.376</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0.622</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="27">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C13" s="27">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="27">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.112</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.36</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0.63</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1">
+        <v>30</v>
+      </c>
+      <c r="H34" s="1">
+        <v>35</v>
+      </c>
+      <c r="I34" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A33:I33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/result_v2.xlsx
+++ b/result_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC8C7A3-B8F4-5548-AB81-47A3173E0ED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D21E512-2FC1-E343-AB77-996AE0827BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6280" yWindow="480" windowWidth="24300" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/result_v2.xlsx
+++ b/result_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D21E512-2FC1-E343-AB77-996AE0827BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D476EAA-821D-C94C-B26D-9885C6C6DF64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="480" windowWidth="24300" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="480" windowWidth="24300" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -690,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B62" sqref="B62:I62"/>
     </sheetView>
   </sheetViews>
@@ -2196,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
